--- a/biology/Botanique/Jardins_de_l'American_Rose_Center/Jardins_de_l'American_Rose_Center.xlsx
+++ b/biology/Botanique/Jardins_de_l'American_Rose_Center/Jardins_de_l'American_Rose_Center.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27American_Rose_Center</t>
+          <t>Jardins_de_l'American_Rose_Center</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de l'American Rose Center sont un jardin botanique consacré aux variétés de roses, situé juste à l'ouest de Shreveport en Louisiane (États-Unis). Le domaine abrite également le siège de l'American Rose Society, la société de roses nationale des États-Unis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27American_Rose_Center</t>
+          <t>Jardins_de_l'American_Rose_Center</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée en 1974, cette roseraie compte quelque 20 000 plants de rosiers, disposés en petits jardins spécialisés, consacrés par exemple aux nouveaux rosiers hybrides, aux variétés sélectionnées par l'association All-America Rose Selections, aux rosiers miniatures, aux rosiers à fleurs simples, etc., dispersés dans un vaste parc boisé. Avec une superficie totale de 47,75 hectares (118 acres), elle est présentée comme le plus vaste parc des États-Unis consacré aux roses.
 Située sur Jefferson Paige Road, elle est ouverte tous les jours du 1er avril au 31 octobre. L'entrée est payante.
